--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01843566666666667</v>
+        <v>0.002551333333333333</v>
       </c>
       <c r="H2">
-        <v>0.055307</v>
+        <v>0.007654</v>
       </c>
       <c r="I2">
-        <v>0.025807851499979</v>
+        <v>0.007597293799083639</v>
       </c>
       <c r="J2">
-        <v>0.025807851499979</v>
+        <v>0.007597293799083639</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1452863333333333</v>
+        <v>0.6644113333333334</v>
       </c>
       <c r="N2">
-        <v>0.435859</v>
+        <v>1.993234</v>
       </c>
       <c r="O2">
-        <v>0.147359434984507</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.147359434984507</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.002678450412555555</v>
+        <v>0.001695134781777778</v>
       </c>
       <c r="R2">
-        <v>0.024106053713</v>
+        <v>0.015256213036</v>
       </c>
       <c r="S2">
-        <v>0.003803030415200968</v>
+        <v>0.007597293799083639</v>
       </c>
       <c r="T2">
-        <v>0.003803030415200968</v>
+        <v>0.007597293799083639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,51 +596,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.01843566666666667</v>
+        <v>0.05552666666666667</v>
       </c>
       <c r="H3">
-        <v>0.055307</v>
+        <v>0.16658</v>
       </c>
       <c r="I3">
-        <v>0.025807851499979</v>
+        <v>0.1653458585120659</v>
       </c>
       <c r="J3">
-        <v>0.025807851499979</v>
+        <v>0.1653458585120659</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8406453333333332</v>
+        <v>0.6644113333333334</v>
       </c>
       <c r="N3">
-        <v>2.521936</v>
+        <v>1.993234</v>
       </c>
       <c r="O3">
-        <v>0.852640565015493</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8526405650154929</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01549785715022222</v>
+        <v>0.03689254663555556</v>
       </c>
       <c r="R3">
-        <v>0.139480714352</v>
+        <v>0.33203291972</v>
       </c>
       <c r="S3">
-        <v>0.02200482108477804</v>
+        <v>0.1653458585120659</v>
       </c>
       <c r="T3">
-        <v>0.02200482108477803</v>
+        <v>0.1653458585120659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,232 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05552666666666667</v>
+        <v>0.2777433333333333</v>
       </c>
       <c r="H4">
-        <v>0.16658</v>
+        <v>0.83323</v>
       </c>
       <c r="I4">
-        <v>0.07773106302758244</v>
+        <v>0.8270568476888503</v>
       </c>
       <c r="J4">
-        <v>0.07773106302758244</v>
+        <v>0.8270568476888503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1452863333333333</v>
+        <v>0.6644113333333334</v>
       </c>
       <c r="N4">
-        <v>0.435859</v>
+        <v>1.993234</v>
       </c>
       <c r="O4">
-        <v>0.147359434984507</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.147359434984507</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.008067265802222221</v>
+        <v>0.1845358184244444</v>
       </c>
       <c r="R4">
-        <v>0.07260539222</v>
+        <v>1.66082236582</v>
       </c>
       <c r="S4">
-        <v>0.01145440552848965</v>
+        <v>0.8270568476888503</v>
       </c>
       <c r="T4">
-        <v>0.01145440552848965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.05552666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.16658</v>
-      </c>
-      <c r="I5">
-        <v>0.07773106302758244</v>
-      </c>
-      <c r="J5">
-        <v>0.07773106302758244</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.8406453333333332</v>
-      </c>
-      <c r="N5">
-        <v>2.521936</v>
-      </c>
-      <c r="O5">
-        <v>0.852640565015493</v>
-      </c>
-      <c r="P5">
-        <v>0.8526405650154929</v>
-      </c>
-      <c r="Q5">
-        <v>0.04667823320888888</v>
-      </c>
-      <c r="R5">
-        <v>0.4201040988799999</v>
-      </c>
-      <c r="S5">
-        <v>0.06627665749909278</v>
-      </c>
-      <c r="T5">
-        <v>0.06627665749909278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.640381</v>
-      </c>
-      <c r="H6">
-        <v>1.921143</v>
-      </c>
-      <c r="I6">
-        <v>0.8964610854724385</v>
-      </c>
-      <c r="J6">
-        <v>0.8964610854724385</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1452863333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.435859</v>
-      </c>
-      <c r="O6">
-        <v>0.147359434984507</v>
-      </c>
-      <c r="P6">
-        <v>0.147359434984507</v>
-      </c>
-      <c r="Q6">
-        <v>0.09303860742633333</v>
-      </c>
-      <c r="R6">
-        <v>0.8373474668369999</v>
-      </c>
-      <c r="S6">
-        <v>0.1321019990408164</v>
-      </c>
-      <c r="T6">
-        <v>0.1321019990408164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.640381</v>
-      </c>
-      <c r="H7">
-        <v>1.921143</v>
-      </c>
-      <c r="I7">
-        <v>0.8964610854724385</v>
-      </c>
-      <c r="J7">
-        <v>0.8964610854724385</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.8406453333333332</v>
-      </c>
-      <c r="N7">
-        <v>2.521936</v>
-      </c>
-      <c r="O7">
-        <v>0.852640565015493</v>
-      </c>
-      <c r="P7">
-        <v>0.8526405650154929</v>
-      </c>
-      <c r="Q7">
-        <v>0.5383332992053332</v>
-      </c>
-      <c r="R7">
-        <v>4.844999692847999</v>
-      </c>
-      <c r="S7">
-        <v>0.7643590864316222</v>
-      </c>
-      <c r="T7">
-        <v>0.7643590864316221</v>
+        <v>0.8270568476888503</v>
       </c>
     </row>
   </sheetData>
